--- a/nmadb/501412.xlsx
+++ b/nmadb/501412.xlsx
@@ -218,11 +218,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
@@ -526,6 +526,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="13.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:22">
       <c r="A1" s="1" t="s">
@@ -563,16 +566,16 @@
       <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="O1" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
-      <c r="U1" s="5"/>
-      <c r="V1" s="5"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
+      <c r="T1" s="9"/>
+      <c r="U1" s="9"/>
+      <c r="V1" s="9"/>
     </row>
     <row r="2" spans="1:22">
       <c r="A2">
@@ -605,24 +608,24 @@
       <c r="K2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="O2" s="6" t="s">
+      <c r="O2" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="8">
-        <v>1</v>
-      </c>
-      <c r="R2" s="9" t="s">
+      <c r="P2" s="11"/>
+      <c r="Q2" s="5">
+        <v>1</v>
+      </c>
+      <c r="R2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="S2" s="8">
+      <c r="S2" s="5">
         <v>4</v>
       </c>
-      <c r="T2" s="9" t="s">
+      <c r="T2" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="U2" s="9"/>
-      <c r="V2" s="9"/>
+      <c r="U2" s="6"/>
+      <c r="V2" s="6"/>
     </row>
     <row r="3" spans="1:22">
       <c r="B3" t="s">
@@ -648,15 +651,15 @@
         <f>E3/F3</f>
         <v>5.4054054054054057E-2</v>
       </c>
-      <c r="O3" s="10"/>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="8">
+      <c r="O3" s="7"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="5">
         <v>2</v>
       </c>
-      <c r="R3" s="9" t="s">
+      <c r="R3" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="S3" s="8">
+      <c r="S3" s="5">
         <v>5</v>
       </c>
       <c r="T3" t="s">
@@ -694,15 +697,15 @@
       <c r="K4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="O4" s="10"/>
-      <c r="P4" s="11"/>
-      <c r="Q4" s="8">
+      <c r="O4" s="7"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="5">
         <v>3</v>
       </c>
-      <c r="R4" s="9" t="s">
+      <c r="R4" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="S4" s="8">
+      <c r="S4" s="5">
         <v>6</v>
       </c>
       <c r="T4" t="s">
